--- a/DATA_goal/Junction_Flooding_355.xlsx
+++ b/DATA_goal/Junction_Flooding_355.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44042.21597222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>40.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.29</v>
+        <v>192.92</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44042.22291666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.43</v>
+        <v>34.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.74</v>
+        <v>27.4</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>47.65</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>181.53</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.25</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.36</v>
+        <v>43.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44042.22986111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.65</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.75</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.9</v>
+        <v>29.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.51</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.51</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>9.57</v>
+        <v>95.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.9</v>
+        <v>19.04</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.67</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44042.23680555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_355.xlsx
+++ b/DATA_goal/Junction_Flooding_355.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44042.21597222222</v>
+        <v>45036.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44042.22291666667</v>
+        <v>45036.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.85</v>
+        <v>15.104</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.24</v>
+        <v>10.562</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.76</v>
+        <v>0.304</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.33</v>
+        <v>28.97</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.4</v>
+        <v>24.63</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.48</v>
+        <v>11.444</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.65</v>
+        <v>36.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.2</v>
+        <v>16.173</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>7.491</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.11</v>
+        <v>12.204</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.73</v>
+        <v>11.758</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.36</v>
+        <v>12.166</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.99</v>
+        <v>3.514</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.41</v>
+        <v>10.397</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.47</v>
+        <v>15.935</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.74</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.489</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.318</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.53</v>
+        <v>158.189</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>34.72</v>
+        <v>30.287</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.45</v>
+        <v>10.398</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.96</v>
+        <v>20.717</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.92</v>
+        <v>10.466</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.31</v>
+        <v>1.43</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.3</v>
+        <v>18.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.12</v>
+        <v>8.798</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.07</v>
+        <v>7.456</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.74</v>
+        <v>8.877000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.4</v>
+        <v>13.388</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.59</v>
+        <v>32.037</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.29</v>
+        <v>5.443</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.32</v>
+        <v>12.233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44042.22986111111</v>
+        <v>45036.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.65</v>
+        <v>18.994</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.05</v>
+        <v>13.825</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.469</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.75</v>
+        <v>38.827</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.79</v>
+        <v>32.579</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.81</v>
+        <v>14.723</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.03</v>
+        <v>54.741</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.47</v>
+        <v>21.616</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.5</v>
+        <v>9.903</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.47</v>
+        <v>15.384</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.51</v>
+        <v>15.711</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.84</v>
+        <v>16.364</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.18</v>
+        <v>4.595</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>13.957</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.51</v>
+        <v>20.75</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.95</v>
+        <v>11.646</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.443</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.446</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.69</v>
+        <v>209.884</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.04</v>
+        <v>39.933</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>13.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.52</v>
+        <v>27.147</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.48</v>
+        <v>13.968</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.34</v>
+        <v>1.873</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.71</v>
+        <v>27.023</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>11.608</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5</v>
+        <v>9.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.91</v>
+        <v>11.825</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.87</v>
+        <v>17.173</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.67</v>
+        <v>49.435</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.38</v>
+        <v>7.317</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.81</v>
+        <v>16.258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44042.23680555556</v>
+        <v>45036.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>6.3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.75</v>
+        <v>4.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.1</v>
+        <v>11.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2</v>
+        <v>10.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.14</v>
+        <v>4.82</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.31</v>
+        <v>22.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>6.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.73</v>
+        <v>3.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.74</v>
+        <v>5.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.24</v>
+        <v>4.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.24</v>
+        <v>4.94</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>1.46</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>4.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.61</v>
+        <v>6.78</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.21</v>
+        <v>3.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.94</v>
+        <v>61.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.53</v>
+        <v>12.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>4.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.24</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.04</v>
+        <v>4.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.08</v>
+        <v>10.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>3.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.95</v>
+        <v>3.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.11</v>
+        <v>3.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.28</v>
+        <v>5.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>20.78</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.45</v>
+        <v>2.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.24375</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.87</v>
+        <v>5.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_355.xlsx
+++ b/DATA_goal/Junction_Flooding_355.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45036.50694444445</v>
+        <v>44042.21597222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45036.51388888889</v>
+        <v>44042.22291666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.104</v>
+        <v>15.854</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.562</v>
+        <v>11.237</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.304</v>
+        <v>1.759</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.97</v>
+        <v>34.334</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.63</v>
+        <v>27.398</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.444</v>
+        <v>12.477</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.27</v>
+        <v>47.653</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.173</v>
+        <v>19.197</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.491</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.204</v>
+        <v>12.111</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.758</v>
+        <v>13.734</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.166</v>
+        <v>14.36</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.514</v>
+        <v>3.986</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.397</v>
+        <v>12.407</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.935</v>
+        <v>17.466</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.768000000000001</v>
+        <v>10.735</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.489</v>
+        <v>1.519</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.318</v>
+        <v>1.074</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.189</v>
+        <v>181.527</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.287</v>
+        <v>34.716</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.398</v>
+        <v>11.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.717</v>
+        <v>22.964</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.466</v>
+        <v>11.92</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.43</v>
+        <v>2.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.6</v>
+        <v>23.296</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.798</v>
+        <v>10.115</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.456</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.877000000000001</v>
+        <v>10.743</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.388</v>
+        <v>14.396</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.037</v>
+        <v>43.594</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.443</v>
+        <v>6.287</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.233</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45036.52083333334</v>
+        <v>44042.22986111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.994</v>
+        <v>8.648</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.825</v>
+        <v>6.05</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.469</v>
+        <v>1.048</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.827</v>
+        <v>18.747</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.579</v>
+        <v>14.786</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.723</v>
+        <v>6.806</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.741</v>
+        <v>29.027</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.616</v>
+        <v>10.471</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.903</v>
+        <v>4.495</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.384</v>
+        <v>6.472</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.711</v>
+        <v>7.514</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.364</v>
+        <v>7.842</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.595</v>
+        <v>2.176</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.957</v>
+        <v>6.767</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.75</v>
+        <v>9.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.646</v>
+        <v>5.955</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.443</v>
+        <v>0.968</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.446</v>
+        <v>0.604</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>209.884</v>
+        <v>95.693</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.933</v>
+        <v>19.039</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.41</v>
+        <v>6.247</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.147</v>
+        <v>12.516</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.968</v>
+        <v>6.483</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.873</v>
+        <v>1.337</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.023</v>
+        <v>13.708</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.608</v>
+        <v>5.517</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.99</v>
+        <v>4.999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.825</v>
+        <v>5.906</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.173</v>
+        <v>7.865</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>49.435</v>
+        <v>26.666</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.317</v>
+        <v>3.384</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.258</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45036.52777777778</v>
+        <v>44042.23680555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.3</v>
+        <v>1.441</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.43</v>
+        <v>0.749</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.597</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.88</v>
+        <v>3.099</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.19</v>
+        <v>2.002</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.82</v>
+        <v>1.138</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.79</v>
+        <v>9.308999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.6</v>
+        <v>1.745</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.16</v>
+        <v>0.729</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.08</v>
+        <v>0.738</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.89</v>
+        <v>1.244</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.94</v>
+        <v>1.242</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.46</v>
+        <v>0.387</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.27</v>
+        <v>1.128</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.78</v>
+        <v>1.611</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.59</v>
+        <v>1.213</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>9.938000000000001</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>1.281</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>8.946</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>1.311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44042.24375</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.28</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>61.2</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>20.78</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.04</v>
+      <c r="AH6" s="4" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_355.xlsx
+++ b/DATA_goal/Junction_Flooding_355.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44042.21597222222</v>
+        <v>45036.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.815</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.263</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.771</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.807</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.941</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.232</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.653</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.363</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.083</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.597</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.223</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.159</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.251</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.431</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.368</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.219</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.924</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.527</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.146</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.789</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.048</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.162</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.789</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.728</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.564</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.528</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.849</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.316</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.381</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.185</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44042.22291666667</v>
+        <v>45036.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.854</v>
+        <v>15.104</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.237</v>
+        <v>10.562</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.759</v>
+        <v>0.304</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.334</v>
+        <v>28.97</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.398</v>
+        <v>24.63</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.477</v>
+        <v>11.444</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>47.653</v>
+        <v>36.27</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.197</v>
+        <v>16.173</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>7.491</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.111</v>
+        <v>12.204</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.734</v>
+        <v>11.758</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.36</v>
+        <v>12.166</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.986</v>
+        <v>3.514</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.407</v>
+        <v>10.397</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.466</v>
+        <v>15.935</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.735</v>
+        <v>8.768000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.519</v>
+        <v>0.489</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.074</v>
+        <v>0.318</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.527</v>
+        <v>158.189</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>34.716</v>
+        <v>30.287</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.452</v>
+        <v>10.398</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>22.964</v>
+        <v>20.717</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.92</v>
+        <v>10.466</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.31</v>
+        <v>1.43</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.296</v>
+        <v>18.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.115</v>
+        <v>8.798</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>7.456</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.743</v>
+        <v>8.877000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.396</v>
+        <v>13.388</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>43.594</v>
+        <v>32.037</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.287</v>
+        <v>5.443</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.318</v>
+        <v>12.233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44042.22986111111</v>
+        <v>45036.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.648</v>
+        <v>18.994</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.05</v>
+        <v>13.825</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.048</v>
+        <v>0.469</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.747</v>
+        <v>38.827</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.786</v>
+        <v>32.579</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.806</v>
+        <v>14.723</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.027</v>
+        <v>54.741</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.471</v>
+        <v>21.616</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.495</v>
+        <v>9.903</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.472</v>
+        <v>15.384</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.514</v>
+        <v>15.711</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.842</v>
+        <v>16.364</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.176</v>
+        <v>4.595</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.767</v>
+        <v>13.957</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.51</v>
+        <v>20.75</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.955</v>
+        <v>11.646</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.968</v>
+        <v>0.443</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.604</v>
+        <v>0.446</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.693</v>
+        <v>209.884</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.039</v>
+        <v>39.933</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.247</v>
+        <v>13.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.516</v>
+        <v>27.147</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.483</v>
+        <v>13.968</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.337</v>
+        <v>1.873</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.708</v>
+        <v>27.023</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.517</v>
+        <v>11.608</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.999</v>
+        <v>9.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.906</v>
+        <v>11.825</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.865</v>
+        <v>17.173</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.666</v>
+        <v>49.435</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.384</v>
+        <v>7.317</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.81</v>
+        <v>16.258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44042.23680555556</v>
+        <v>45036.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.441</v>
+        <v>6.3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.749</v>
+        <v>4.43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.597</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.099</v>
+        <v>11.88</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.002</v>
+        <v>10.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.138</v>
+        <v>4.82</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.308999999999999</v>
+        <v>22.79</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.745</v>
+        <v>6.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.729</v>
+        <v>3.16</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.738</v>
+        <v>5.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.244</v>
+        <v>4.89</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.242</v>
+        <v>4.94</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.387</v>
+        <v>1.46</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.128</v>
+        <v>4.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.611</v>
+        <v>6.78</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.213</v>
+        <v>3.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.676</v>
+        <v>0.28</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.283</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.938000000000001</v>
+        <v>61.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.529</v>
+        <v>12.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.041</v>
+        <v>4.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.237</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.043</v>
+        <v>4.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.08</v>
+        <v>10.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>3.66</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.946</v>
+        <v>3.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.109</v>
+        <v>3.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.281</v>
+        <v>5.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.946</v>
+        <v>20.78</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.453</v>
+        <v>2.22</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.311</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44042.24375</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.87</v>
+        <v>5.04</v>
       </c>
     </row>
   </sheetData>
